--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Jag1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Jag1-Notch4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.78268133333334</v>
+        <v>14.734287</v>
       </c>
       <c r="H2">
-        <v>56.34804400000001</v>
+        <v>44.202861</v>
       </c>
       <c r="I2">
-        <v>0.286679008418643</v>
+        <v>0.4000023944294819</v>
       </c>
       <c r="J2">
-        <v>0.286679008418643</v>
+        <v>0.400002394429482</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N2">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O2">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P2">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q2">
-        <v>887.5565232024322</v>
+        <v>735.13399949067</v>
       </c>
       <c r="R2">
-        <v>7988.00870882189</v>
+        <v>6616.20599541603</v>
       </c>
       <c r="S2">
-        <v>0.2546860643786636</v>
+        <v>0.3465384219713514</v>
       </c>
       <c r="T2">
-        <v>0.2546860643786635</v>
+        <v>0.3465384219713515</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.78268133333334</v>
+        <v>14.734287</v>
       </c>
       <c r="H3">
-        <v>56.34804400000001</v>
+        <v>44.202861</v>
       </c>
       <c r="I3">
-        <v>0.286679008418643</v>
+        <v>0.4000023944294819</v>
       </c>
       <c r="J3">
-        <v>0.286679008418643</v>
+        <v>0.400002394429482</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>12.067552</v>
       </c>
       <c r="O3">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P3">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q3">
-        <v>75.55366122980979</v>
+        <v>59.26892485180799</v>
       </c>
       <c r="R3">
-        <v>679.982951068288</v>
+        <v>533.420323666272</v>
       </c>
       <c r="S3">
-        <v>0.02168026950958513</v>
+        <v>0.02793906920957861</v>
       </c>
       <c r="T3">
-        <v>0.02168026950958512</v>
+        <v>0.02793906920957862</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.78268133333334</v>
+        <v>14.734287</v>
       </c>
       <c r="H4">
-        <v>56.34804400000001</v>
+        <v>44.202861</v>
       </c>
       <c r="I4">
-        <v>0.286679008418643</v>
+        <v>0.4000023944294819</v>
       </c>
       <c r="J4">
-        <v>0.286679008418643</v>
+        <v>0.400002394429482</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N4">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O4">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P4">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q4">
-        <v>14.82555855181423</v>
+        <v>18.657551219487</v>
       </c>
       <c r="R4">
-        <v>133.430026966328</v>
+        <v>167.917960975383</v>
       </c>
       <c r="S4">
-        <v>0.004254222757727186</v>
+        <v>0.008795074587667396</v>
       </c>
       <c r="T4">
-        <v>0.004254222757727185</v>
+        <v>0.008795074587667399</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.78268133333334</v>
+        <v>14.734287</v>
       </c>
       <c r="H5">
-        <v>56.34804400000001</v>
+        <v>44.202861</v>
       </c>
       <c r="I5">
-        <v>0.286679008418643</v>
+        <v>0.4000023944294819</v>
       </c>
       <c r="J5">
-        <v>0.286679008418643</v>
+        <v>0.400002394429482</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N5">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O5">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P5">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q5">
-        <v>6.028846271692</v>
+        <v>3.251596835163</v>
       </c>
       <c r="R5">
-        <v>54.259616445228</v>
+        <v>29.264371516467</v>
       </c>
       <c r="S5">
-        <v>0.001729989121302429</v>
+        <v>0.001532786181737098</v>
       </c>
       <c r="T5">
-        <v>0.001729989121302429</v>
+        <v>0.001532786181737099</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.78268133333334</v>
+        <v>14.734287</v>
       </c>
       <c r="H6">
-        <v>56.34804400000001</v>
+        <v>44.202861</v>
       </c>
       <c r="I6">
-        <v>0.286679008418643</v>
+        <v>0.4000023944294819</v>
       </c>
       <c r="J6">
-        <v>0.286679008418643</v>
+        <v>0.400002394429482</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.803095</v>
+        <v>2.187988666666667</v>
       </c>
       <c r="N6">
-        <v>2.409285</v>
+        <v>6.563966</v>
       </c>
       <c r="O6">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="P6">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="Q6">
-        <v>15.08427746539334</v>
+        <v>32.238452967414</v>
       </c>
       <c r="R6">
-        <v>135.75849718854</v>
+        <v>290.146076706726</v>
       </c>
       <c r="S6">
-        <v>0.004328462651364651</v>
+        <v>0.01519704247914746</v>
       </c>
       <c r="T6">
-        <v>0.004328462651364651</v>
+        <v>0.01519704247914746</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>43.358832</v>
       </c>
       <c r="I7">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978801</v>
       </c>
       <c r="J7">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978802</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N7">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O7">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P7">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q7">
-        <v>682.9591845288961</v>
+        <v>721.0970254030401</v>
       </c>
       <c r="R7">
-        <v>6146.632660760064</v>
+        <v>6489.873228627361</v>
       </c>
       <c r="S7">
-        <v>0.1959764615455979</v>
+        <v>0.33992146390255</v>
       </c>
       <c r="T7">
-        <v>0.1959764615455978</v>
+        <v>0.3399214639025501</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>43.358832</v>
       </c>
       <c r="I8">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978801</v>
       </c>
       <c r="J8">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978802</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>12.067552</v>
       </c>
       <c r="O8">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P8">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q8">
         <v>58.137217757696</v>
@@ -948,10 +948,10 @@
         <v>523.234959819264</v>
       </c>
       <c r="S8">
-        <v>0.01668258730295631</v>
+        <v>0.02740558825127839</v>
       </c>
       <c r="T8">
-        <v>0.01668258730295631</v>
+        <v>0.0274055882512784</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>43.358832</v>
       </c>
       <c r="I9">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978801</v>
       </c>
       <c r="J9">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978802</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N9">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O9">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P9">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q9">
-        <v>11.408007393376</v>
+        <v>18.301295675344</v>
       </c>
       <c r="R9">
-        <v>102.672066540384</v>
+        <v>164.711661078096</v>
       </c>
       <c r="S9">
-        <v>0.003273549829748655</v>
+        <v>0.008627137539222627</v>
       </c>
       <c r="T9">
-        <v>0.003273549829748654</v>
+        <v>0.008627137539222632</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>43.358832</v>
       </c>
       <c r="I10">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978801</v>
       </c>
       <c r="J10">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978802</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N10">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O10">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P10">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q10">
-        <v>4.639091512176</v>
+        <v>3.189509405456</v>
       </c>
       <c r="R10">
-        <v>41.75182360958399</v>
+        <v>28.705584649104</v>
       </c>
       <c r="S10">
-        <v>0.001331196299775368</v>
+        <v>0.001503518483698608</v>
       </c>
       <c r="T10">
-        <v>0.001331196299775368</v>
+        <v>0.001503518483698608</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>43.358832</v>
       </c>
       <c r="I11">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978801</v>
       </c>
       <c r="J11">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978802</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.803095</v>
+        <v>2.187988666666667</v>
       </c>
       <c r="N11">
-        <v>2.409285</v>
+        <v>6.563966</v>
       </c>
       <c r="O11">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="P11">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="Q11">
-        <v>11.60708706168</v>
+        <v>31.622877671968</v>
       </c>
       <c r="R11">
-        <v>104.46378355512</v>
+        <v>284.605899047712</v>
       </c>
       <c r="S11">
-        <v>0.003330676126376178</v>
+        <v>0.01490686342113055</v>
       </c>
       <c r="T11">
-        <v>0.003330676126376178</v>
+        <v>0.01490686342113055</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>20.02445833333333</v>
+        <v>1.259379333333333</v>
       </c>
       <c r="H12">
-        <v>60.073375</v>
+        <v>3.778138</v>
       </c>
       <c r="I12">
-        <v>0.3056321809034097</v>
+        <v>0.03418928576783783</v>
       </c>
       <c r="J12">
-        <v>0.3056321809034098</v>
+        <v>0.03418928576783784</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N12">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O12">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P12">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q12">
-        <v>946.235433692</v>
+        <v>62.83388983730445</v>
       </c>
       <c r="R12">
-        <v>8516.118903228</v>
+        <v>565.5050085357401</v>
       </c>
       <c r="S12">
-        <v>0.2715240914608073</v>
+        <v>0.02961957554082297</v>
       </c>
       <c r="T12">
-        <v>0.2715240914608073</v>
+        <v>0.02961957554082298</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>20.02445833333333</v>
+        <v>1.259379333333333</v>
       </c>
       <c r="H13">
-        <v>60.073375</v>
+        <v>3.778138</v>
       </c>
       <c r="I13">
-        <v>0.3056321809034097</v>
+        <v>0.03418928576783783</v>
       </c>
       <c r="J13">
-        <v>0.3056321809034098</v>
+        <v>0.03418928576783784</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>12.067552</v>
       </c>
       <c r="O13">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P13">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q13">
-        <v>80.54873073644443</v>
+        <v>5.065875197575111</v>
       </c>
       <c r="R13">
-        <v>724.938576628</v>
+        <v>45.592876778176</v>
       </c>
       <c r="S13">
-        <v>0.02311361438474019</v>
+        <v>0.002388027758324035</v>
       </c>
       <c r="T13">
-        <v>0.02311361438474019</v>
+        <v>0.002388027758324035</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.02445833333333</v>
+        <v>1.259379333333333</v>
       </c>
       <c r="H14">
-        <v>60.073375</v>
+        <v>3.778138</v>
       </c>
       <c r="I14">
-        <v>0.3056321809034097</v>
+        <v>0.03418928576783783</v>
       </c>
       <c r="J14">
-        <v>0.3056321809034098</v>
+        <v>0.03418928576783784</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N14">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O14">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P14">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q14">
-        <v>15.80571880130555</v>
+        <v>1.594711329868223</v>
       </c>
       <c r="R14">
-        <v>142.25146921175</v>
+        <v>14.352401968814</v>
       </c>
       <c r="S14">
-        <v>0.00453548164082642</v>
+        <v>0.0007517387961041824</v>
       </c>
       <c r="T14">
-        <v>0.00453548164082642</v>
+        <v>0.0007517387961041826</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.02445833333333</v>
+        <v>1.259379333333333</v>
       </c>
       <c r="H15">
-        <v>60.073375</v>
+        <v>3.778138</v>
       </c>
       <c r="I15">
-        <v>0.3056321809034097</v>
+        <v>0.03418928576783783</v>
       </c>
       <c r="J15">
-        <v>0.3056321809034098</v>
+        <v>0.03418928576783784</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N15">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O15">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P15">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q15">
-        <v>6.427430611374999</v>
+        <v>0.2779227698317778</v>
       </c>
       <c r="R15">
-        <v>57.84687550237499</v>
+        <v>2.501304928486</v>
       </c>
       <c r="S15">
-        <v>0.001844363670013484</v>
+        <v>0.0001310113777272434</v>
       </c>
       <c r="T15">
-        <v>0.001844363670013484</v>
+        <v>0.0001310113777272435</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.02445833333333</v>
+        <v>1.259379333333333</v>
       </c>
       <c r="H16">
-        <v>60.073375</v>
+        <v>3.778138</v>
       </c>
       <c r="I16">
-        <v>0.3056321809034097</v>
+        <v>0.03418928576783783</v>
       </c>
       <c r="J16">
-        <v>0.3056321809034098</v>
+        <v>0.03418928576783784</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.803095</v>
+        <v>2.187988666666667</v>
       </c>
       <c r="N16">
-        <v>2.409285</v>
+        <v>6.563966</v>
       </c>
       <c r="O16">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="P16">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="Q16">
-        <v>16.08154236520833</v>
+        <v>2.755507708367555</v>
       </c>
       <c r="R16">
-        <v>144.733881286875</v>
+        <v>24.799569375308</v>
       </c>
       <c r="S16">
-        <v>0.004614629747022325</v>
+        <v>0.001298932294859403</v>
       </c>
       <c r="T16">
-        <v>0.004614629747022325</v>
+        <v>0.001298932294859403</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.480759333333334</v>
+        <v>4.524255666666667</v>
       </c>
       <c r="H17">
-        <v>16.442278</v>
+        <v>13.572767</v>
       </c>
       <c r="I17">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="J17">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N17">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O17">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P17">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q17">
-        <v>258.987713845184</v>
+        <v>225.7275267513789</v>
       </c>
       <c r="R17">
-        <v>2330.889424606657</v>
+        <v>2031.54774076241</v>
       </c>
       <c r="S17">
-        <v>0.07431702639473844</v>
+        <v>0.1064068060654453</v>
       </c>
       <c r="T17">
-        <v>0.07431702639473843</v>
+        <v>0.1064068060654453</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.480759333333334</v>
+        <v>4.524255666666667</v>
       </c>
       <c r="H18">
-        <v>16.442278</v>
+        <v>13.572767</v>
       </c>
       <c r="I18">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="J18">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>12.067552</v>
       </c>
       <c r="O18">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P18">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q18">
-        <v>22.04644941816178</v>
+        <v>18.19889683959822</v>
       </c>
       <c r="R18">
-        <v>198.418044763456</v>
+        <v>163.790071556384</v>
       </c>
       <c r="S18">
-        <v>0.006326271385596318</v>
+        <v>0.008578867249757536</v>
       </c>
       <c r="T18">
-        <v>0.006326271385596317</v>
+        <v>0.008578867249757538</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.480759333333334</v>
+        <v>4.524255666666667</v>
       </c>
       <c r="H19">
-        <v>16.442278</v>
+        <v>13.572767</v>
       </c>
       <c r="I19">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="J19">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N19">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O19">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P19">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q19">
-        <v>4.326076610826223</v>
+        <v>5.728918666433445</v>
       </c>
       <c r="R19">
-        <v>38.934689497436</v>
+        <v>51.56026799790101</v>
       </c>
       <c r="S19">
-        <v>0.00124137606722386</v>
+        <v>0.002700583071444869</v>
       </c>
       <c r="T19">
-        <v>0.00124137606722386</v>
+        <v>0.00270058307144487</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.480759333333334</v>
+        <v>4.524255666666667</v>
       </c>
       <c r="H20">
-        <v>16.442278</v>
+        <v>13.572767</v>
       </c>
       <c r="I20">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="J20">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N20">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O20">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P20">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q20">
-        <v>1.759208650054</v>
+        <v>0.9984232971165555</v>
       </c>
       <c r="R20">
-        <v>15.832877850486</v>
+        <v>8.985809674048999</v>
       </c>
       <c r="S20">
-        <v>0.000504808331402422</v>
+        <v>0.0004706516554559057</v>
       </c>
       <c r="T20">
-        <v>0.0005048083314024219</v>
+        <v>0.0004706516554559059</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.480759333333334</v>
+        <v>4.524255666666667</v>
       </c>
       <c r="H21">
-        <v>16.442278</v>
+        <v>13.572767</v>
       </c>
       <c r="I21">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="J21">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.803095</v>
+        <v>2.187988666666667</v>
       </c>
       <c r="N21">
-        <v>2.409285</v>
+        <v>6.563966</v>
       </c>
       <c r="O21">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="P21">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="Q21">
-        <v>4.401570416803334</v>
+        <v>9.899020123769111</v>
       </c>
       <c r="R21">
-        <v>39.61413375123001</v>
+        <v>89.091181113922</v>
       </c>
       <c r="S21">
-        <v>0.001263039161152687</v>
+        <v>0.004666347652442017</v>
       </c>
       <c r="T21">
-        <v>0.001263039161152686</v>
+        <v>0.004666347652442018</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.777317666666666</v>
+        <v>1.864631</v>
       </c>
       <c r="H22">
-        <v>20.331953</v>
+        <v>5.593893</v>
       </c>
       <c r="I22">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025444</v>
       </c>
       <c r="J22">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025445</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N22">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O22">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P22">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q22">
-        <v>320.255260583584</v>
+        <v>93.03155589437667</v>
       </c>
       <c r="R22">
-        <v>2882.297345252256</v>
+        <v>837.28400304939</v>
       </c>
       <c r="S22">
-        <v>0.0918978676651484</v>
+        <v>0.04385460146791378</v>
       </c>
       <c r="T22">
-        <v>0.0918978676651484</v>
+        <v>0.04385460146791379</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.777317666666666</v>
+        <v>1.864631</v>
       </c>
       <c r="H23">
-        <v>20.331953</v>
+        <v>5.593893</v>
       </c>
       <c r="I23">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025444</v>
       </c>
       <c r="J23">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025445</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>12.067552</v>
       </c>
       <c r="O23">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P23">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q23">
-        <v>27.26187778767288</v>
+        <v>7.500510517770666</v>
       </c>
       <c r="R23">
-        <v>245.356900089056</v>
+        <v>67.50459465993599</v>
       </c>
       <c r="S23">
-        <v>0.007822848663499618</v>
+        <v>0.003535702444191957</v>
       </c>
       <c r="T23">
-        <v>0.007822848663499617</v>
+        <v>0.003535702444191957</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.777317666666666</v>
+        <v>1.864631</v>
       </c>
       <c r="H24">
-        <v>20.331953</v>
+        <v>5.593893</v>
       </c>
       <c r="I24">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025444</v>
       </c>
       <c r="J24">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025445</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N24">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O24">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P24">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q24">
-        <v>5.34947689886511</v>
+        <v>2.361121945564333</v>
       </c>
       <c r="R24">
-        <v>48.145292089786</v>
+        <v>21.250097510079</v>
       </c>
       <c r="S24">
-        <v>0.00153504276318162</v>
+        <v>0.00111302085560549</v>
       </c>
       <c r="T24">
-        <v>0.00153504276318162</v>
+        <v>0.00111302085560549</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.777317666666666</v>
+        <v>1.864631</v>
       </c>
       <c r="H25">
-        <v>20.331953</v>
+        <v>5.593893</v>
       </c>
       <c r="I25">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025444</v>
       </c>
       <c r="J25">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025445</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N25">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O25">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P25">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q25">
-        <v>2.175376647328999</v>
+        <v>0.4114911198856666</v>
       </c>
       <c r="R25">
-        <v>19.578389825961</v>
+        <v>3.703420078970999</v>
       </c>
       <c r="S25">
-        <v>0.0006242285447358611</v>
+        <v>0.0001939748174335567</v>
       </c>
       <c r="T25">
-        <v>0.0006242285447358611</v>
+        <v>0.0001939748174335567</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.777317666666666</v>
+        <v>1.864631</v>
       </c>
       <c r="H26">
-        <v>20.331953</v>
+        <v>5.593893</v>
       </c>
       <c r="I26">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025444</v>
       </c>
       <c r="J26">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025445</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.803095</v>
+        <v>2.187988666666667</v>
       </c>
       <c r="N26">
-        <v>2.409285</v>
+        <v>6.563966</v>
       </c>
       <c r="O26">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="P26">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="Q26">
-        <v>5.442829931511666</v>
+        <v>4.079791495515333</v>
       </c>
       <c r="R26">
-        <v>48.985469383605</v>
+        <v>36.71812345963799</v>
       </c>
       <c r="S26">
-        <v>0.001561830596813643</v>
+        <v>0.001923192925109658</v>
       </c>
       <c r="T26">
-        <v>0.001561830596813643</v>
+        <v>0.001923192925109658</v>
       </c>
     </row>
   </sheetData>
